--- a/test/saved_top.xlsx
+++ b/test/saved_top.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="64">
   <si>
     <t>t1</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>parent1_1</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>parent2_1</t>
@@ -789,528 +792,708 @@
       <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="P12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="T12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="U12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="O13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="T13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="U13" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="K15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="P15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="T15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="M16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="O16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="R16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U16" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="J19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="2" t="s">
+      <c r="P19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="T19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="U19" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="O20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="U20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="O21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="T21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="U21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
